--- a/medicine/Handicap/Trouble_désintégratif_de_l'enfance/Trouble_désintégratif_de_l'enfance.xlsx
+++ b/medicine/Handicap/Trouble_désintégratif_de_l'enfance/Trouble_désintégratif_de_l'enfance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Trouble_d%C3%A9sint%C3%A9gratif_de_l%27enfance</t>
+          <t>Trouble_désintégratif_de_l'enfance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un trouble désintégratif de l’enfance (en anglais : Childhood disintegrative disorder) est un trouble rare caractérisé par une étape tardive (&gt; 3 ans) du retard de développement d'un enfant dans le langage, les relations sociales et la psychomotricité. Les chercheurs n'ont pas trouvé de cause significative liée à ce trouble[réf. nécessaire].
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trouble_d%C3%A9sint%C3%A9gratif_de_l%27enfance</t>
+          <t>Trouble_désintégratif_de_l'enfance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le trouble désintégratif de l'enfance est répertorié dans la classification internationale des maladies (CIM-10 Version 2008 : F84.3) parmi les troubles envahissants du développement sous la dénomination : « Autre trouble désintégratif de l'enfance »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le trouble désintégratif de l'enfance est répertorié dans la classification internationale des maladies (CIM-10 Version 2008 : F84.3) parmi les troubles envahissants du développement sous la dénomination : « Autre trouble désintégratif de l'enfance ».
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Trouble_d%C3%A9sint%C3%A9gratif_de_l%27enfance</t>
+          <t>Trouble_désintégratif_de_l'enfance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une « perte clinique » survient dans divers domaines où l'enfant a déjà acquis des compétences : langage, socialisation, adaptation à l'environnement, motricité et aptitude au jeu, des centres d'intérêt restreints, stéréotypés et répétitifs, qui sont également observés dans d'autres troubles autistiques[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une « perte clinique » survient dans divers domaines où l'enfant a déjà acquis des compétences : langage, socialisation, adaptation à l'environnement, motricité et aptitude au jeu, des centres d'intérêt restreints, stéréotypés et répétitifs, qui sont également observés dans d'autres troubles autistiques.
 Ce trouble semblerait être lié à une lésion au système nerveux central[réf. nécessaire].
 De façon générale, ce trouble s’accompagne d’un handicap mental sévère.
-La prévalence du trouble désintégratif de l’enfance est très faible (APA ; DSM-IV-TR, 2001), quoique mal connue ; un taux de 1 pour 100 000 est évoqué[3].
+La prévalence du trouble désintégratif de l’enfance est très faible (APA ; DSM-IV-TR, 2001), quoique mal connue ; un taux de 1 pour 100 000 est évoqué.
 </t>
         </is>
       </c>
